--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BAB33-26E7-435B-A60F-D3A506E67C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D730D09-C66A-4FEB-BF5E-1603BC256128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -1550,11 +1550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2232,9 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="R20" s="9">
+        <v>1</v>
+      </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
@@ -2554,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2565,15 +2567,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -3328,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1227AA98-08EE-4642-87CC-39AAE2D5BB8A}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D730D09-C66A-4FEB-BF5E-1603BC256128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC64CC-1038-4965-B864-8E27A8903EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="86">
   <si>
     <t>Event</t>
   </si>
@@ -669,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +734,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,7 +1285,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,13 +1549,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R56" sqref="R56"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,6 +2601,153 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="9">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="9">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="9">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="9">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="9">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="9">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="9">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="9">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="9">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:V52" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2611,10 +2759,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,8 +2773,8 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>65</v>
       </c>
@@ -2636,8 +2784,14 @@
       <c r="D2" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -2647,8 +2801,14 @@
       <c r="D3" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>67</v>
       </c>
@@ -2658,9 +2818,15 @@
       <c r="D4" s="29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -2669,8 +2835,14 @@
       <c r="D5" s="29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>48</v>
       </c>
@@ -2680,8 +2852,14 @@
       <c r="D6" s="29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
         <v>56</v>
       </c>
@@ -2691,8 +2869,14 @@
       <c r="D7" s="29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>57</v>
       </c>
@@ -2701,6 +2885,20 @@
       </c>
       <c r="D8" s="32" t="s">
         <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC64CC-1038-4965-B864-8E27A8903EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92614FFF-75C3-4488-9832-40215FB616F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="98">
   <si>
     <t>Event</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Kristina, Jayson, Sage, Jake, Steven</t>
   </si>
   <si>
-    <t>Expisode Title</t>
-  </si>
-  <si>
     <t>Nate, Rizo</t>
   </si>
   <si>
@@ -303,18 +300,64 @@
   </si>
   <si>
     <t>Schultz &amp; Big P</t>
+  </si>
+  <si>
+    <t>Who will say the episode title ("Go Kick Rocks,Bro")?</t>
+  </si>
+  <si>
+    <t>Pick someone who will be on tribe that wins immunity (There's a tribe swap, we don't know tribe names)</t>
+  </si>
+  <si>
+    <t>Who will go on a journey? (Answer can be no one)</t>
+  </si>
+  <si>
+    <t>Who will find an advantage? (Can be no one)</t>
+  </si>
+  <si>
+    <t>Who will play an advantage? (Can be no one)</t>
+  </si>
+  <si>
+    <t>Who will be eliminated?</t>
+  </si>
+  <si>
+    <t>Shannon, Alex, Steven, Sage, MC, Kristina, Sophie S</t>
+  </si>
+  <si>
+    <t>No one</t>
+  </si>
+  <si>
+    <t>Jack Latimire</t>
+  </si>
+  <si>
+    <t>Japan Pitts</t>
+  </si>
+  <si>
+    <t>Steven Ramm</t>
+  </si>
+  <si>
+    <t>Suzanne or whatever\</t>
+  </si>
+  <si>
+    <t>Shea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -361,7 +404,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +441,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -665,76 +720,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,19 +1259,19 @@
       <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1342,8 +1463,8 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>83</v>
+      <c r="J1" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -1439,8 +1560,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>83</v>
+      <c r="A9" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -1551,11 +1672,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53:C67"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,8 +1732,8 @@
       <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>83</v>
+      <c r="J1" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>16</v>
@@ -2762,7 +2883,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,30 +2896,30 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
@@ -2809,13 +2930,13 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G4" t="s">
@@ -2826,13 +2947,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="G5" t="s">
@@ -2843,13 +2964,13 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G6" t="s">
@@ -2860,13 +2981,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>53</v>
       </c>
       <c r="G7" t="s">
@@ -2877,13 +2998,13 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="29" t="s">
         <v>54</v>
       </c>
       <c r="G8" t="s">
@@ -2908,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD0539-AEEA-4F66-B012-77D12D726F3A}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J17"/>
+      <selection activeCell="J24" sqref="E24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,34 +3049,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="9"/>
@@ -2963,34 +3084,34 @@
       <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="9"/>
@@ -2998,34 +3119,34 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="9"/>
@@ -3033,34 +3154,34 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="9"/>
@@ -3068,34 +3189,34 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
-        <v>1</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>68</v>
       </c>
       <c r="K5" s="9"/>
@@ -3103,34 +3224,34 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="33">
+        <v>1</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
       <c r="K6" s="9"/>
@@ -3138,34 +3259,34 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="45" t="s">
+      <c r="I7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="42" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="9"/>
@@ -3173,34 +3294,34 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>2</v>
-      </c>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="40" t="s">
+      <c r="C8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="I8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="43" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="9"/>
@@ -3208,34 +3329,34 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>2</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="37" t="s">
+      <c r="A9" s="33">
+        <v>2</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="45" t="s">
+      <c r="I9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="9"/>
@@ -3243,34 +3364,34 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>2</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="33">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="45" t="s">
+      <c r="I10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="9"/>
@@ -3278,69 +3399,69 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="33">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>78</v>
+      <c r="J11" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
-        <v>2</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="33">
+        <v>2</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="45" t="s">
+      <c r="I12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="K12" s="9"/>
@@ -3348,34 +3469,34 @@
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
-        <v>3</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="31">
+        <v>3</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="9"/>
@@ -3383,34 +3504,34 @@
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>3</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="37" t="s">
+      <c r="A14" s="33">
+        <v>3</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="42" t="s">
         <v>65</v>
       </c>
       <c r="K14" s="9"/>
@@ -3418,98 +3539,98 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>3</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="33">
+        <v>3</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="45" t="s">
-        <v>75</v>
+      <c r="J15" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>3</v>
-      </c>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="35">
+        <v>3</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>78</v>
+      <c r="J16" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
-        <v>3</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="35">
+        <v>3</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="49" t="s">
         <v>46</v>
       </c>
       <c r="I17" s="15" t="s">
@@ -3521,6 +3642,216 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>3</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>3</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>3</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>3</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3531,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1227AA98-08EE-4642-87CC-39AAE2D5BB8A}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,45 +3872,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="62">
+        <v>2</v>
+      </c>
+      <c r="D2" s="62">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="62">
+        <v>2</v>
+      </c>
+      <c r="F2" s="62">
         <v>0</v>
       </c>
       <c r="G2" s="10">
@@ -3587,22 +3918,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="62">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="62">
+        <v>2</v>
+      </c>
+      <c r="D3" s="62">
+        <v>2</v>
+      </c>
+      <c r="E3" s="62">
+        <v>1</v>
+      </c>
+      <c r="F3" s="62">
         <v>0</v>
       </c>
       <c r="G3" s="10">
@@ -3610,22 +3941,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="62">
+        <v>2</v>
+      </c>
+      <c r="C4" s="62">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62">
+        <v>3</v>
+      </c>
+      <c r="E4" s="62">
+        <v>2</v>
+      </c>
+      <c r="F4" s="62">
         <v>0</v>
       </c>
       <c r="G4" s="10">
@@ -3633,20 +3964,31 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50">
+        <v>3</v>
+      </c>
+      <c r="C5" s="50">
+        <v>3</v>
+      </c>
+      <c r="D5" s="50">
+        <v>3</v>
+      </c>
+      <c r="E5" s="50">
+        <v>2</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92614FFF-75C3-4488-9832-40215FB616F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28017F14-F2A1-4C5B-9BDA-1BF510A52F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -852,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD0539-AEEA-4F66-B012-77D12D726F3A}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="E24:J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>85</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>86</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>87</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>88</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>89</v>
@@ -3804,7 +3804,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+      <c r="A23" s="38">
+        <v>4</v>
+      </c>
       <c r="B23" s="39" t="s">
         <v>90</v>
       </c>
@@ -3862,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1227AA98-08EE-4642-87CC-39AAE2D5BB8A}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28017F14-F2A1-4C5B-9BDA-1BF510A52F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4719AFA-0406-4524-8BBA-A9D5C7441980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -774,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,7 +841,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3031,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD0539-AEEA-4F66-B012-77D12D726F3A}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,22 +3655,22 @@
       <c r="D18" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="58" t="s">
         <v>96</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3679,7 +3678,7 @@
       <c r="A19" s="33">
         <v>4</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="48" t="s">
@@ -3688,22 +3687,22 @@
       <c r="D19" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="58" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="55" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3714,28 +3713,28 @@
       <c r="B20" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="60" t="s">
         <v>92</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="56" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3746,28 +3745,28 @@
       <c r="B21" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="52" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="58" t="s">
         <v>92</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="56" t="s">
+      <c r="J21" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3778,28 +3777,28 @@
       <c r="B22" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="60" t="s">
         <v>92</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="56" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3813,25 +3812,25 @@
       <c r="C23" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="58" t="s">
         <v>97</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="57" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3864,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1227AA98-08EE-4642-87CC-39AAE2D5BB8A}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,19 +3899,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>0</v>
       </c>
-      <c r="C2" s="62">
-        <v>2</v>
-      </c>
-      <c r="D2" s="62">
+      <c r="C2" s="61">
+        <v>2</v>
+      </c>
+      <c r="D2" s="61">
         <v>0</v>
       </c>
-      <c r="E2" s="62">
-        <v>2</v>
-      </c>
-      <c r="F2" s="62">
+      <c r="E2" s="61">
+        <v>2</v>
+      </c>
+      <c r="F2" s="61">
         <v>0</v>
       </c>
       <c r="G2" s="10">
@@ -3923,19 +3922,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="61">
         <v>4</v>
       </c>
-      <c r="C3" s="62">
-        <v>2</v>
-      </c>
-      <c r="D3" s="62">
-        <v>2</v>
-      </c>
-      <c r="E3" s="62">
-        <v>1</v>
-      </c>
-      <c r="F3" s="62">
+      <c r="C3" s="61">
+        <v>2</v>
+      </c>
+      <c r="D3" s="61">
+        <v>2</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1</v>
+      </c>
+      <c r="F3" s="61">
         <v>0</v>
       </c>
       <c r="G3" s="10">
@@ -3946,19 +3945,19 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="62">
-        <v>2</v>
-      </c>
-      <c r="C4" s="62">
-        <v>1</v>
-      </c>
-      <c r="D4" s="62">
+      <c r="B4" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4" s="61">
+        <v>1</v>
+      </c>
+      <c r="D4" s="61">
         <v>3</v>
       </c>
-      <c r="E4" s="62">
-        <v>2</v>
-      </c>
-      <c r="F4" s="62">
+      <c r="E4" s="61">
+        <v>2</v>
+      </c>
+      <c r="F4" s="61">
         <v>0</v>
       </c>
       <c r="G4" s="10">
@@ -3969,22 +3968,22 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="61">
         <v>3</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="61">
         <v>3</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="61">
         <v>3</v>
       </c>
-      <c r="E5" s="50">
-        <v>2</v>
-      </c>
-      <c r="F5" s="50">
+      <c r="E5" s="61">
+        <v>2</v>
+      </c>
+      <c r="F5" s="61">
         <v>0</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="61">
         <v>3</v>
       </c>
     </row>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4719AFA-0406-4524-8BBA-A9D5C7441980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13FB5C-CCBD-4B42-84A7-0DCA2F8BA77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Scoring Methodology" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PointsScored_Survivor!$A$1:$V$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PointsScored_Survivor!$A$1:$V$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="116">
   <si>
     <t>Event</t>
   </si>
@@ -339,18 +339,79 @@
   </si>
   <si>
     <t>Shea</t>
+  </si>
+  <si>
+    <t>Who will say the episode title ("The Devil’s Shoes")?</t>
+  </si>
+  <si>
+    <t>Who will win immunity?</t>
+  </si>
+  <si>
+    <t>Who will say the episode title ("The Devil’s Shoes")? *(wrong title in question)</t>
+  </si>
+  <si>
+    <t>Is there a comma after wolf? If so, Savannah. If not, Sage.</t>
+  </si>
+  <si>
+    <t>Kels</t>
+  </si>
+  <si>
+    <t>Jayson</t>
+  </si>
+  <si>
+    <t>MC, Nate</t>
+  </si>
+  <si>
+    <t>No one, Nobody</t>
+  </si>
+  <si>
+    <t>Jason, Jayson</t>
+  </si>
+  <si>
+    <t>Name someone on the tribe that wins immunity? (There’s going to be a swap to 3 tribes, 2pts if they are on 1st place tribe, 1pt if on 2nd place)</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Jawan pitts</t>
+  </si>
+  <si>
+    <t>Sophi</t>
+  </si>
+  <si>
+    <t>Who will say the episode title ("Blood Will be Drawn")?</t>
+  </si>
+  <si>
+    <t>nate</t>
+  </si>
+  <si>
+    <t>MC will get the idol - from her beware advantage</t>
+  </si>
+  <si>
+    <t>nobody</t>
+  </si>
+  <si>
+    <t>MC, MC will get the idol - from her beware advantage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -403,6 +464,12 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -454,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -770,91 +837,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,14 +1313,14 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1351,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1360,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1369,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1389,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>82</v>
       </c>
@@ -1273,7 +1411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +1422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1306,7 +1444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1328,7 +1466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1337,7 +1475,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1357,7 +1495,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1366,7 +1504,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1377,7 +1515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1524,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1408,33 +1546,33 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>82</v>
       </c>
@@ -1566,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +1712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1728,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1614,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1638,7 +1776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1646,7 +1784,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1654,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1669,41 +1807,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
-  <dimension ref="A1:V67"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22" customWidth="1"/>
+    <col min="7" max="7" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="34.8984375" customWidth="1"/>
+    <col min="11" max="11" width="31.59765625" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.796875" customWidth="1"/>
+    <col min="21" max="21" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1799,7 +1939,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1827,7 +1967,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1855,7 +1995,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1887,7 +2027,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1919,7 +2059,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1947,7 +2087,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1979,7 +2119,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2011,7 +2151,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2043,7 +2183,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2075,7 +2215,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2245,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2139,7 +2279,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2171,7 +2311,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2203,7 +2343,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2235,7 +2375,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2263,7 +2403,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2295,7 +2435,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2327,7 +2467,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2361,7 +2501,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2389,7 +2529,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2397,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2408,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2419,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2427,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2438,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2449,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2460,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2471,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2493,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2504,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2515,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2523,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2534,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2545,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2556,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2564,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2575,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2586,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2594,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2605,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2616,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2630,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2641,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2655,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2666,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2688,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2699,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2710,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2721,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2732,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2740,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2748,7 +2888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -2756,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -2767,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -2775,7 +2915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2786,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2794,7 +2934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2805,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -2816,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -2827,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -2838,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -2846,7 +2986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -2857,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -2868,8 +3008,420 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="9">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="9">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="9">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="9">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="9">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="9">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="9">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="9">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="9">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="9">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="9">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="9">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="9">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="9">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="9">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="9">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="9">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="9">
+        <v>7</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="9">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="9">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="9">
+        <v>7</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="9">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" s="9">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" s="9">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B104" s="62"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V52" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}"/>
+  <autoFilter ref="A1:V103" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="6"/>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2885,16 +3437,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="19" t="s">
         <v>65</v>
       </c>
@@ -2911,7 +3463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
         <v>44</v>
       </c>
@@ -2928,7 +3480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.4">
       <c r="B4" s="25" t="s">
         <v>67</v>
       </c>
@@ -2945,7 +3497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.4">
       <c r="B5" s="45" t="s">
         <v>47</v>
       </c>
@@ -2962,7 +3514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.4">
       <c r="B6" s="25" t="s">
         <v>48</v>
       </c>
@@ -2979,7 +3531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.4">
       <c r="B7" s="25" t="s">
         <v>56</v>
       </c>
@@ -2996,7 +3548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="27" t="s">
         <v>57</v>
       </c>
@@ -3013,7 +3565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>53</v>
       </c>
@@ -3028,26 +3580,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD0539-AEEA-4F66-B012-77D12D726F3A}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>41</v>
       </c>
@@ -3082,7 +3635,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -3117,7 +3670,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -3152,7 +3705,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -3187,7 +3740,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -3222,7 +3775,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>1</v>
       </c>
@@ -3257,7 +3810,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="33">
         <v>1</v>
       </c>
@@ -3292,7 +3845,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -3327,7 +3880,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>2</v>
       </c>
@@ -3362,7 +3915,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>2</v>
       </c>
@@ -3397,7 +3950,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>2</v>
       </c>
@@ -3432,7 +3985,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="33">
         <v>2</v>
       </c>
@@ -3467,7 +4020,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>3</v>
       </c>
@@ -3502,7 +4055,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>3</v>
       </c>
@@ -3537,7 +4090,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>3</v>
       </c>
@@ -3572,7 +4125,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>3</v>
       </c>
@@ -3607,7 +4160,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>3</v>
       </c>
@@ -3642,7 +4195,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>4</v>
       </c>
@@ -3674,7 +4227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
         <v>4</v>
       </c>
@@ -3706,7 +4259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>4</v>
       </c>
@@ -3738,7 +4291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>4</v>
       </c>
@@ -3770,7 +4323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>4</v>
       </c>
@@ -3802,7 +4355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="38">
         <v>4</v>
       </c>
@@ -3834,24 +4387,577 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
+    <row r="24" spans="1:13" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="64">
+        <v>5</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="65">
+        <v>5</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="65">
+        <v>5</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="65">
+        <v>5</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="65">
+        <v>5</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="65">
+        <v>5</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="65">
+        <v>6</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="65">
+        <v>6</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="65">
+        <v>6</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="65">
+        <v>6</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="65">
+        <v>6</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="65">
+        <v>6</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="65">
+        <v>7</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="65">
+        <v>7</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="65">
+        <v>7</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="65">
+        <v>7</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="65">
+        <v>7</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="65">
+        <v>7</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3863,16 +4969,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1227AA98-08EE-4642-87CC-39AAE2D5BB8A}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3895,7 +5001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3918,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3941,7 +5047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3964,7 +5070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3987,27 +5093,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61">
+        <v>3</v>
+      </c>
+      <c r="C6" s="71">
+        <v>2</v>
+      </c>
+      <c r="D6" s="71">
+        <v>1</v>
+      </c>
+      <c r="E6" s="71">
+        <v>2</v>
+      </c>
+      <c r="F6" s="71">
+        <v>0</v>
+      </c>
+      <c r="G6" s="71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61">
+        <v>4</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3</v>
+      </c>
+      <c r="D7" s="61">
+        <v>3</v>
+      </c>
+      <c r="E7" s="61">
+        <v>2</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0</v>
+      </c>
+      <c r="G7" s="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61">
+        <v>1</v>
+      </c>
+      <c r="C8" s="61">
+        <v>1</v>
+      </c>
+      <c r="D8" s="61">
+        <v>1</v>
+      </c>
+      <c r="E8" s="61">
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0</v>
+      </c>
+      <c r="G8" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4015,7 +5170,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4023,7 +5178,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -4031,7 +5186,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4039,7 +5194,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -4047,7 +5202,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4055,7 +5210,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4063,7 +5218,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4071,7 +5226,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4079,7 +5234,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4087,7 +5242,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4095,7 +5250,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4119,17 +5274,17 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="17.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="52.3984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4141,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4149,7 +5304,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -4161,7 +5316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -4171,7 +5326,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -4181,7 +5336,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -4191,7 +5346,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -4203,7 +5358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -4213,13 +5368,13 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +5382,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -4239,7 +5394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -4251,7 +5406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -4263,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -4275,7 +5430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>20</v>
@@ -4287,7 +5442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
@@ -4299,7 +5454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -4309,7 +5464,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
@@ -4321,7 +5476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -4329,7 +5484,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -4339,7 +5494,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -4349,7 +5504,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
@@ -4361,7 +5516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>31</v>
@@ -4371,7 +5526,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>32</v>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13FB5C-CCBD-4B42-84A7-0DCA2F8BA77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD0D9C5-4C85-46E1-A3B5-C78F38BF970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -987,8 +987,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1807,14 +1807,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1911,7 +1910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1939,7 +1938,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1967,7 +1966,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1995,7 +1994,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2086,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2151,7 +2150,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2183,7 +2182,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2215,7 +2214,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2244,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2279,7 +2278,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2311,7 +2310,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2343,7 +2342,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2375,7 +2374,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2403,7 +2402,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2435,7 +2434,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2467,7 +2466,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2501,7 +2500,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2529,7 +2528,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2674,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -3414,14 +3413,7 @@
       <c r="B104" s="62"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V103" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="6"/>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V103" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3583,8 +3575,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:J41"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4970,7 +4962,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD0D9C5-4C85-46E1-A3B5-C78F38BF970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27E04E-7980-4417-B378-19543A9B0F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoreboard_Table" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="131">
   <si>
     <t>Event</t>
   </si>
@@ -393,18 +393,70 @@
   </si>
   <si>
     <t>MC, MC will get the idol - from her beware advantage</t>
+  </si>
+  <si>
+    <t>Who will say the episode title ("Hot Grim Reaper")?</t>
+  </si>
+  <si>
+    <t>Who is the "Hot Grim Reaper" that the title is referring to?</t>
+  </si>
+  <si>
+    <t>ncosgrov44@gmail.com</t>
+  </si>
+  <si>
+    <t>michael.evan.kar@gmail.com</t>
+  </si>
+  <si>
+    <t>paigettomlinson@gmail.com</t>
+  </si>
+  <si>
+    <t>ericdanielhand@gmail.com</t>
+  </si>
+  <si>
+    <t>ibaskin92@gmail.com</t>
+  </si>
+  <si>
+    <t>jenabaskin@gmail.com</t>
+  </si>
+  <si>
+    <t>Sage (if it was a man they wouldn’t include it?)</t>
+  </si>
+  <si>
+    <t>Savanah</t>
+  </si>
+  <si>
+    <t>Savannah too oculus but oh well</t>
+  </si>
+  <si>
+    <t>Chili pepper. The reward challenge is a hot pepper eating challenge</t>
+  </si>
+  <si>
+    <t>Rizgod</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Savananana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -470,6 +522,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -521,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -890,109 +948,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1807,13 +1890,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3410,7 +3493,109 @@
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B104" s="62"/>
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" s="9">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="9">
+        <v>8</v>
+      </c>
+      <c r="D105" s="79"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="9">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="9">
+        <v>8</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="9">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="9">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V103" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}"/>
@@ -3572,11 +3757,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD0539-AEEA-4F66-B012-77D12D726F3A}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46:D47"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="E49:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4380,577 +4565,864 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="64" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="64">
+      <c r="A24" s="63">
         <v>5</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="I24" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="65">
+      <c r="A25" s="64">
         <v>5</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="62" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="65">
+      <c r="A26" s="64">
         <v>5</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="66" t="s">
+      <c r="J26" s="65" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="65">
+      <c r="A27" s="64">
         <v>5</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="70" t="s">
+      <c r="I27" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="66" t="s">
+      <c r="J27" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="65">
+      <c r="A28" s="64">
         <v>5</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65">
+      <c r="A29" s="64">
         <v>5</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="70" t="s">
+      <c r="I29" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="65">
+      <c r="A30" s="64">
         <v>6</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="65">
+      <c r="A31" s="64">
         <v>6</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J31" s="66" t="s">
+      <c r="J31" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="65">
+      <c r="A32" s="64">
         <v>6</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="65">
+      <c r="A33" s="64">
         <v>6</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="62" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="65">
+      <c r="A34" s="64">
         <v>6</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="66" t="s">
+      <c r="H34" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="70" t="s">
+      <c r="I34" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="J34" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="65">
+      <c r="A35" s="64">
         <v>6</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I35" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="62" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="65">
+      <c r="A36" s="64">
         <v>7</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="63" t="s">
+      <c r="J36" s="62" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="65">
+      <c r="A37" s="64">
         <v>7</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="66" t="s">
+      <c r="J37" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="65">
+      <c r="A38" s="64">
         <v>7</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J38" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="65">
+      <c r="A39" s="64">
         <v>7</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="70" t="s">
+      <c r="I39" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J39" s="66" t="s">
+      <c r="J39" s="65" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="65">
+      <c r="A40" s="64">
         <v>7</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="70" t="s">
+      <c r="I40" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="63" t="s">
+      <c r="J40" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="65">
+      <c r="A41" s="64">
         <v>7</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="70" t="s">
+      <c r="H41" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="J41" s="63" t="s">
+      <c r="J41" s="73" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="74">
+        <v>8</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="74">
+        <v>8</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="74">
+        <v>8</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="74">
+        <v>8</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="74">
+        <v>8</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="74">
+        <v>8</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="74">
+        <v>8</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="3:8" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="62"/>
+    </row>
+    <row r="55" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C55" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="62"/>
+    </row>
+    <row r="56" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="62"/>
+    </row>
+    <row r="57" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="62"/>
+    </row>
+    <row r="58" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C58" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="62"/>
+    </row>
+    <row r="59" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="62"/>
+    </row>
+    <row r="60" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C60" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4962,7 +5434,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5092,19 +5564,19 @@
       <c r="B6" s="61">
         <v>3</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="70">
         <v>2</v>
       </c>
-      <c r="D6" s="71">
-        <v>1</v>
-      </c>
-      <c r="E6" s="71">
+      <c r="D6" s="70">
+        <v>1</v>
+      </c>
+      <c r="E6" s="70">
         <v>2</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="70">
         <v>0</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="70">
         <v>4</v>
       </c>
     </row>
@@ -5127,7 +5599,7 @@
       <c r="F7" s="61">
         <v>0</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="70">
         <v>2</v>
       </c>
     </row>
@@ -5150,17 +5622,32 @@
       <c r="F8" s="61">
         <v>0</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>

--- a/data/east/Survivor_49_East.xlsx
+++ b/data/east/Survivor_49_East.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\east\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27E04E-7980-4417-B378-19543A9B0F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEADA2E-8027-45AD-A8D7-84AAFDB4CFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{446E4F7A-E405-E54E-8316-75643DDCCDA4}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Scoring Methodology" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PointsScored_Survivor!$A$1:$V$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PointsScored_Survivor!$A$1:$V$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="139">
   <si>
     <t>Event</t>
   </si>
@@ -401,24 +401,6 @@
     <t>Who is the "Hot Grim Reaper" that the title is referring to?</t>
   </si>
   <si>
-    <t>ncosgrov44@gmail.com</t>
-  </si>
-  <si>
-    <t>michael.evan.kar@gmail.com</t>
-  </si>
-  <si>
-    <t>paigettomlinson@gmail.com</t>
-  </si>
-  <si>
-    <t>ericdanielhand@gmail.com</t>
-  </si>
-  <si>
-    <t>ibaskin92@gmail.com</t>
-  </si>
-  <si>
-    <t>jenabaskin@gmail.com</t>
-  </si>
-  <si>
     <t>Sage (if it was a man they wouldn’t include it?)</t>
   </si>
   <si>
@@ -438,6 +420,48 @@
   </si>
   <si>
     <t>Savananana</t>
+  </si>
+  <si>
+    <t>Who will say the episode title ("a huge dose of bamboozle")?</t>
+  </si>
+  <si>
+    <t>Savannah (extra vote)</t>
+  </si>
+  <si>
+    <t>No journey</t>
+  </si>
+  <si>
+    <t>Sophie - Your girl</t>
+  </si>
+  <si>
+    <t>Sophi- My girl plays the Knowledge is Power</t>
+  </si>
+  <si>
+    <t>Sophie yellow</t>
+  </si>
+  <si>
+    <t>Blue soph</t>
+  </si>
+  <si>
+    <t>Yellow Sophie.</t>
+  </si>
+  <si>
+    <t>Roscoe</t>
+  </si>
+  <si>
+    <t>Yellow Sophie</t>
+  </si>
+  <si>
+    <t>Rizzo</t>
+  </si>
+  <si>
+    <t>Who will say the episode title ("if you’re loyal to all you’re loyal to none")?</t>
+  </si>
+  <si>
+    <t>Steven, Savannah</t>
+  </si>
+  <si>
+    <t>Kristina, Savannah</t>
   </si>
 </sst>
 </file>
@@ -579,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -961,11 +985,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,6 +1274,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1396,14 +1638,14 @@
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1676,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1685,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +1694,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1714,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1483,7 +1725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>82</v>
       </c>
@@ -1494,7 +1736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1505,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1549,7 +1791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1558,7 +1800,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1569,7 +1811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1820,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1829,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1598,7 +1840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1849,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1629,33 +1871,33 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1763,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +2013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +2021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>82</v>
       </c>
@@ -1787,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1795,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1811,7 +2053,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1819,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1843,7 +2085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1851,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1859,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1867,7 +2109,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1890,42 +2132,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
-  <dimension ref="A1:V113"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G104" sqref="G104"/>
+      <selection pane="bottomRight" activeCell="U126" sqref="U126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="34.8984375" customWidth="1"/>
-    <col min="11" max="11" width="31.59765625" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.796875" customWidth="1"/>
-    <col min="21" max="21" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
@@ -1993,7 +2236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2021,7 +2264,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2049,7 +2292,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2077,7 +2320,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2109,7 +2352,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2141,7 +2384,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2412,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2201,7 +2444,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2233,7 +2476,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2265,7 +2508,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2297,7 +2540,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2327,7 +2570,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2361,7 +2604,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2393,7 +2636,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2425,7 +2668,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +2700,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2485,7 +2728,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2517,7 +2760,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2549,7 +2792,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2583,7 +2826,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2611,7 +2854,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2619,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2630,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2641,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2649,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2660,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2671,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2682,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2693,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2704,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2715,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2726,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2737,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2745,7 +2988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2756,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2767,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2778,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2786,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2797,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2808,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2816,7 +3059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2827,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2838,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2852,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2863,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2877,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2888,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2899,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2910,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2921,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2932,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2943,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2954,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2962,7 +3205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2970,7 +3213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -2978,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -2989,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -2997,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -3008,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -3016,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -3027,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -3038,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -3049,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -3060,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3068,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -3079,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -3090,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -3101,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -3109,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -3117,7 +3360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -3128,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -3139,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -3147,7 +3390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -3155,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -3166,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -3177,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3188,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3196,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -3207,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -3218,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -3232,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -3240,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -3254,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -3268,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -3282,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -3296,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -3307,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -3321,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -3329,7 +3572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -3346,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -3360,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -3368,7 +3611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>64</v>
       </c>
@@ -3376,7 +3619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3384,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -3392,7 +3635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -3409,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -3420,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -3431,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -3445,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>53</v>
       </c>
@@ -3453,7 +3696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
@@ -3464,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -3478,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
@@ -3492,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>64</v>
       </c>
@@ -3503,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -3512,7 +3755,7 @@
       </c>
       <c r="D105" s="79"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>67</v>
       </c>
@@ -3526,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -3534,7 +3777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -3542,7 +3785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -3550,7 +3793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>53</v>
       </c>
@@ -3567,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>55</v>
       </c>
@@ -3578,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>56</v>
       </c>
@@ -3586,7 +3829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -3597,8 +3840,203 @@
         <v>1</v>
       </c>
     </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="9">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" s="9">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="9">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="9">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="9">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="9">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="9">
+        <v>10</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="9">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" s="9">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" s="9">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="9">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V103" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}"/>
+  <autoFilter ref="A1:V131" xr:uid="{962D3BD4-F3C2-47AE-9C68-86328CD48EE4}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3614,16 +4052,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>65</v>
       </c>
@@ -3640,7 +4078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>44</v>
       </c>
@@ -3657,7 +4095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
         <v>67</v>
       </c>
@@ -3674,7 +4112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="45" t="s">
         <v>47</v>
       </c>
@@ -3691,7 +4129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
         <v>48</v>
       </c>
@@ -3708,7 +4146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>56</v>
       </c>
@@ -3725,7 +4163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="27" t="s">
         <v>57</v>
       </c>
@@ -3742,7 +4180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>53</v>
       </c>
@@ -3760,24 +4198,24 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="E49:J49"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>41</v>
       </c>
@@ -3812,7 +4250,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -3847,7 +4285,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -3882,7 +4320,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -3917,7 +4355,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -3952,7 +4390,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
@@ -3987,7 +4425,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>1</v>
       </c>
@@ -4022,7 +4460,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -4057,7 +4495,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>2</v>
       </c>
@@ -4092,7 +4530,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>2</v>
       </c>
@@ -4127,7 +4565,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>2</v>
       </c>
@@ -4162,7 +4600,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>2</v>
       </c>
@@ -4197,7 +4635,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>3</v>
       </c>
@@ -4232,7 +4670,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>3</v>
       </c>
@@ -4267,7 +4705,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>3</v>
       </c>
@@ -4302,7 +4740,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>3</v>
       </c>
@@ -4337,7 +4775,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>3</v>
       </c>
@@ -4372,7 +4810,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>4</v>
       </c>
@@ -4404,7 +4842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>4</v>
       </c>
@@ -4436,7 +4874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>4</v>
       </c>
@@ -4468,7 +4906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>4</v>
       </c>
@@ -4500,7 +4938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>4</v>
       </c>
@@ -4532,7 +4970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>4</v>
       </c>
@@ -4564,7 +5002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="63">
         <v>5</v>
       </c>
@@ -4596,7 +5034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="64">
         <v>5</v>
       </c>
@@ -4628,7 +5066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64">
         <v>5</v>
       </c>
@@ -4660,7 +5098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64">
         <v>5</v>
       </c>
@@ -4692,7 +5130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="64">
         <v>5</v>
       </c>
@@ -4724,7 +5162,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="64">
         <v>5</v>
       </c>
@@ -4756,7 +5194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
         <v>6</v>
       </c>
@@ -4788,7 +5226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="64">
         <v>6</v>
       </c>
@@ -4820,7 +5258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="64">
         <v>6</v>
       </c>
@@ -4849,7 +5287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64">
         <v>6</v>
       </c>
@@ -4881,7 +5319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="64">
         <v>6</v>
       </c>
@@ -4913,7 +5351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="64">
         <v>6</v>
       </c>
@@ -4945,7 +5383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64">
         <v>7</v>
       </c>
@@ -4977,7 +5415,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64">
         <v>7</v>
       </c>
@@ -5009,7 +5447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64">
         <v>7</v>
       </c>
@@ -5041,7 +5479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64">
         <v>7</v>
       </c>
@@ -5073,7 +5511,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64">
         <v>7</v>
       </c>
@@ -5105,7 +5543,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64">
         <v>7</v>
       </c>
@@ -5137,7 +5575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="74">
         <v>8</v>
       </c>
@@ -5157,10 +5595,10 @@
         <v>57</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H42" s="62" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I42" s="62" t="s">
         <v>45</v>
@@ -5169,7 +5607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="74">
         <v>8</v>
       </c>
@@ -5186,13 +5624,13 @@
         <v>53</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G43" s="62" t="s">
         <v>52</v>
       </c>
       <c r="H43" s="65" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I43" s="65" t="s">
         <v>53</v>
@@ -5201,7 +5639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="74">
         <v>8</v>
       </c>
@@ -5233,7 +5671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="74">
         <v>8</v>
       </c>
@@ -5253,10 +5691,10 @@
         <v>48</v>
       </c>
       <c r="G45" s="62" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H45" s="62" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I45" s="62" t="s">
         <v>57</v>
@@ -5265,7 +5703,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="74">
         <v>8</v>
       </c>
@@ -5297,7 +5735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="74">
         <v>8</v>
       </c>
@@ -5329,100 +5767,391 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="74">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="83">
         <v>8</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="62" t="s">
+      <c r="F48" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" s="73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="88">
+        <v>9</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="E49" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="63">
+        <v>9</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="93"/>
+      <c r="E50" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="63">
+        <v>9</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="93"/>
+      <c r="E51" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" s="94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="63">
+        <v>9</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" s="100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63">
+        <v>9</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="93"/>
+      <c r="E53" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="95">
+        <v>9</v>
+      </c>
+      <c r="B54" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="97"/>
+      <c r="E54" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="J54" s="101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="80">
+        <v>10</v>
+      </c>
+      <c r="B55" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J55" s="87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="80">
+        <v>10</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" s="65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="80">
+        <v>10</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="I48" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" s="62" t="s">
+      <c r="I57" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="80">
+        <v>10</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="80">
+        <v>10</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="65" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="3:8" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="H53" s="62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="62" t="s">
+      <c r="F59" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="80">
+        <v>10</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="62"/>
-    </row>
-    <row r="55" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="62"/>
-    </row>
-    <row r="56" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="62" t="s">
+      <c r="E60" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="62"/>
-    </row>
-    <row r="57" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="62" t="s">
+      <c r="H60" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="62"/>
-    </row>
-    <row r="58" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C58" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="G58" s="62"/>
-    </row>
-    <row r="59" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="G59" s="62"/>
-    </row>
-    <row r="60" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C60" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="G60" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5434,15 +6163,15 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -5465,7 +6194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5488,7 +6217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5511,7 +6240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5534,7 +6263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5557,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5580,7 +6309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5603,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5626,46 +6355,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="61">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="61">
+        <v>1</v>
+      </c>
+      <c r="D9" s="61">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="61">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61">
+        <v>2</v>
+      </c>
+      <c r="C10" s="61">
+        <v>1</v>
+      </c>
+      <c r="D10" s="61">
+        <v>3</v>
+      </c>
+      <c r="E10" s="61">
+        <v>3</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5673,7 +6429,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5681,7 +6437,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5689,7 +6445,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5697,7 +6453,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5705,7 +6461,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5713,7 +6469,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -5721,7 +6477,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5729,7 +6485,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5753,17 +6509,17 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="52.3984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="6"/>
+    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5775,7 +6531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5783,7 +6539,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -5795,7 +6551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -5805,7 +6561,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -5815,7 +6571,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -5825,7 +6581,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -5837,7 +6593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -5847,13 +6603,13 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5861,7 +6617,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -5873,7 +6629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -5885,7 +6641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -5897,7 +6653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -5909,7 +6665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>20</v>
@@ -5921,7 +6677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
@@ -5933,7 +6689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -5943,7 +6699,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
@@ -5955,7 +6711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -5963,7 +6719,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -5973,7 +6729,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -5983,7 +6739,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
@@ -5995,7 +6751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>31</v>
@@ -6005,7 +6761,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>32</v>
